--- a/standards.maturity/Data.Standards.Maturity.Assessment.xlsx
+++ b/standards.maturity/Data.Standards.Maturity.Assessment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bus4005\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonus/Documents/git/mycollections/standards.maturity/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5239D7-A80B-7A4D-8072-D0535475587D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="1500" windowWidth="23040" windowHeight="17520"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="ISA" sheetId="6" r:id="rId6"/>
     <sheet name="ISO" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sapp (US), Brandon</author>
   </authors>
   <commentList>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="115">
   <si>
     <t>Functional Focus Areas</t>
   </si>
@@ -415,13 +416,37 @@
   </si>
   <si>
     <t>Shop Floor</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Gaps</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>U3D</t>
+  </si>
+  <si>
+    <t>David Briggs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,8 +474,16 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,8 +568,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -904,11 +943,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -958,19 +1176,163 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,182 +1344,341 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1466,272 +1987,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BG31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+      <selection pane="topRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="2.625" customWidth="1"/>
-    <col min="6" max="50" width="5.875" customWidth="1"/>
+    <col min="3" max="11" width="2.6640625" style="2" customWidth="1"/>
+    <col min="12" max="17" width="2.6640625" customWidth="1"/>
+    <col min="18" max="58" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="S1" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25" t="s">
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="27" t="s">
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="28" t="s">
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AO1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AU1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="32" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="26"/>
-    </row>
-    <row r="2" spans="1:51" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="65"/>
+    </row>
+    <row r="2" spans="1:59" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="P2" s="58"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="S2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="T2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="U2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="V2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="W2" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="X2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Y2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="Z2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="AA2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="AB2" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="AC2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="AD2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="AE2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="AF2" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="AG2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="AH2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AI2" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AK2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AL2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AM2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AN2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AO2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="47" t="s">
+      <c r="AP2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="47" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="47" t="s">
+      <c r="AR2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="48" t="s">
+      <c r="AS2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AT2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AM2" s="49" t="s">
+      <c r="AU2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="50" t="s">
+      <c r="AV2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="51" t="s">
+      <c r="AW2" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AP2" s="52" t="s">
+      <c r="AX2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="53" t="s">
+      <c r="AY2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AR2" s="53" t="s">
+      <c r="AZ2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AS2" s="53" t="s">
+      <c r="BA2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AT2" s="53" t="s">
+      <c r="BB2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AU2" s="53" t="s">
+      <c r="BC2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AV2" s="53" t="s">
+      <c r="BD2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="53" t="s">
+      <c r="BE2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="54" t="s">
+      <c r="BF2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AY2" s="1"/>
-    </row>
-    <row r="3" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BG2" s="1"/>
+    </row>
+    <row r="3" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="C3" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
@@ -1762,34 +2316,42 @@
       <c r="AV3" s="14"/>
       <c r="AW3" s="14"/>
       <c r="AX3" s="14"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="45"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="V4" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
@@ -1800,9 +2362,7 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
-      <c r="AG4" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
@@ -1810,7 +2370,9 @@
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
+      <c r="AO4" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
@@ -1819,29 +2381,37 @@
       <c r="AU4" s="9"/>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
-      <c r="AX4" s="10"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="10"/>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="46"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -1865,58 +2435,66 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
-      <c r="AX5" s="4"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="AX5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="4"/>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="3"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="46"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="X6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -1941,40 +2519,48 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
-      <c r="AX6" s="4"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="4"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="3"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="X7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
@@ -1999,40 +2585,48 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
       <c r="AW7" s="3"/>
-      <c r="AX7" s="4"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="4"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="3"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="46"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="X8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -2057,60 +2651,58 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
-      <c r="AX8" s="4"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="4"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="46"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="V9" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="X9" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
       <c r="AJ9" s="3" t="s">
         <v>59</v>
       </c>
@@ -2123,66 +2715,74 @@
       </c>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
+      <c r="AP9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
+      <c r="AU9" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
-      <c r="AX9" s="4"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="4"/>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="46"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
+      <c r="V10" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-      <c r="AH10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
       <c r="AJ10" s="3" t="s">
         <v>59</v>
       </c>
@@ -2195,66 +2795,74 @@
       </c>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
+      <c r="AP10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
+      <c r="AU10" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
-      <c r="AX10" s="4"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="4"/>
+    </row>
+    <row r="11" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+      <c r="V11" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-      <c r="AH11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
       <c r="AJ11" s="3" t="s">
         <v>59</v>
       </c>
@@ -2267,43 +2875,77 @@
       </c>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
+      <c r="AP11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
+      <c r="AU11" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
-      <c r="AX11" s="4"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="4"/>
+    </row>
+    <row r="12" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="86">
+        <f>AIA!B11</f>
+        <v>75</v>
+      </c>
+      <c r="G12" s="94">
+        <f>AIA!B12</f>
+        <v>50</v>
+      </c>
+      <c r="H12" s="87">
+        <f>AIA!B13</f>
+        <v>25</v>
+      </c>
+      <c r="I12" s="79"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="86">
+        <f>HDF!B5</f>
+        <v>75</v>
+      </c>
+      <c r="P12" s="94">
+        <f>HDF!B6</f>
+        <v>20</v>
+      </c>
+      <c r="Q12" s="87">
+        <f>HDF!B7</f>
+        <v>55</v>
+      </c>
+      <c r="R12" s="46"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2330,38 +2972,46 @@
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
-      <c r="AU12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV12" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
-      <c r="AX12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="46"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -2371,24 +3021,14 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-      <c r="AH13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
       <c r="AJ13" s="3" t="s">
         <v>59</v>
       </c>
@@ -2401,69 +3041,85 @@
       </c>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
+      <c r="AP13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
+      <c r="AU13" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
-      <c r="AX13" s="4"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="4"/>
+    </row>
+    <row r="14" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="55">
+      <c r="B14" s="41"/>
+      <c r="C14" s="86">
+        <f>AIA!B5</f>
+        <v>75</v>
+      </c>
+      <c r="D14" s="94">
         <f>AIA!B6</f>
-        <v>75</v>
-      </c>
-      <c r="D14" s="3">
+        <v>50</v>
+      </c>
+      <c r="E14" s="87">
         <f>AIA!B7</f>
-        <v>20</v>
-      </c>
-      <c r="E14" s="4">
-        <f>AIA!B8</f>
-        <v>55</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="46"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="X14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
@@ -2471,10 +3127,10 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AM14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
@@ -2482,42 +3138,61 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
+      <c r="AV14" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AW14" s="3"/>
-      <c r="AX14" s="4"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="4"/>
+    </row>
+    <row r="15" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R15" s="3"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="86">
+        <f>AIA!B17</f>
+        <v>75</v>
+      </c>
+      <c r="G15" s="94">
+        <f>AIA!B18</f>
+        <v>50</v>
+      </c>
+      <c r="H15" s="87">
+        <f>AIA!B19</f>
+        <v>25</v>
+      </c>
+      <c r="I15" s="79"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="Y15" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -2542,40 +3217,57 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
-      <c r="AX15" s="4"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="4"/>
+    </row>
+    <row r="16" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="3"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="86">
+        <f>AIA!B23</f>
+        <v>75</v>
+      </c>
+      <c r="G16" s="94">
+        <f>AIA!B24</f>
+        <v>50</v>
+      </c>
+      <c r="H16" s="87">
+        <f>AIA!B25</f>
+        <v>25</v>
+      </c>
+      <c r="I16" s="79"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="46"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="Y16" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -2600,47 +3292,55 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
-      <c r="AX16" s="4"/>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="4"/>
+    </row>
+    <row r="17" spans="1:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="Y17" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
+      <c r="AA17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
@@ -2661,44 +3361,61 @@
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
-      <c r="AW17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX17" s="4"/>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF17" s="4"/>
+    </row>
+    <row r="18" spans="1:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="86">
+        <f>AIA!B29</f>
+        <v>75</v>
+      </c>
+      <c r="G18" s="94">
+        <f>AIA!B30</f>
+        <v>50</v>
+      </c>
+      <c r="H18" s="87">
+        <f>AIA!B31</f>
+        <v>25</v>
+      </c>
+      <c r="I18" s="79"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="46"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="X18" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -2724,39 +3441,56 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
-      <c r="AX18" s="4"/>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="4"/>
+    </row>
+    <row r="19" spans="1:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="86">
+        <f>AIA!B35</f>
+        <v>75</v>
+      </c>
+      <c r="G19" s="94">
+        <f>AIA!B36</f>
+        <v>50</v>
+      </c>
+      <c r="H19" s="87">
+        <f>AIA!B37</f>
+        <v>25</v>
+      </c>
+      <c r="I19" s="79"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="46"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="X19" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -2782,40 +3516,48 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
-      <c r="AX19" s="4"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="4"/>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R20" s="3"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="46"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="X20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -2840,40 +3582,48 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
-      <c r="AX20" s="4"/>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="4"/>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R21" s="3"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="X21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -2898,66 +3648,74 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
-      <c r="AX21" s="4"/>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="4"/>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA22" s="3"/>
+      <c r="Y22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
+      <c r="AC22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
+      <c r="AH22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
@@ -2965,58 +3723,70 @@
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="4"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="AW22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="4"/>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
+      <c r="Y23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
+      <c r="AH23" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
@@ -3031,32 +3801,40 @@
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
-      <c r="AW23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX23" s="4"/>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF23" s="4"/>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="46"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -3068,21 +3846,21 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-      <c r="AD24" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
+      <c r="AL24" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
+      <c r="AN24" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
@@ -3092,32 +3870,40 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
-      <c r="AX24" s="4"/>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="4"/>
+    </row>
+    <row r="25" spans="1:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3136,9 +3922,7 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
-      <c r="AL25" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
@@ -3146,35 +3930,52 @@
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
+      <c r="AT25" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
-      <c r="AX25" s="4"/>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="4"/>
+    </row>
+    <row r="26" spans="1:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="86">
+        <f>ANSI!B5</f>
+        <v>75</v>
+      </c>
+      <c r="J26" s="94">
+        <f>ANSI!B6</f>
+        <v>20</v>
+      </c>
+      <c r="K26" s="87">
+        <f>ANSI!B7</f>
+        <v>55</v>
+      </c>
+      <c r="L26" s="37"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="46"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3206,36 +4007,51 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
-      <c r="AX26" s="4"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="4"/>
+    </row>
+    <row r="27" spans="1:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="86">
+        <f>ANSI!B11</f>
+        <v>75</v>
+      </c>
+      <c r="J27" s="94">
+        <f>ANSI!B12</f>
+        <v>20</v>
+      </c>
+      <c r="K27" s="87">
+        <f>ANSI!B13</f>
+        <v>55</v>
+      </c>
+      <c r="L27" s="37"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3266,34 +4082,42 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
-      <c r="AX27" s="4"/>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="4"/>
+    </row>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3324,41 +4148,41 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
-      <c r="AX28" s="4"/>
-    </row>
-    <row r="29" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="4"/>
+    </row>
+    <row r="29" spans="1:58" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="47"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5" t="s">
@@ -3369,20 +4193,26 @@
       </c>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
+      <c r="AC29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD29" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
+      <c r="AG29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH29" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
-      <c r="AN29" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
       <c r="AQ29" s="5"/>
@@ -3390,101 +4220,114 @@
       <c r="AS29" s="5"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
+      <c r="AV29" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AW29" s="5"/>
-      <c r="AX29" s="6"/>
-    </row>
-    <row r="30" spans="1:50" ht="84" x14ac:dyDescent="0.25">
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="6"/>
+    </row>
+    <row r="30" spans="1:58" ht="84" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62" t="s">
+      <c r="G30" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62" t="s">
+      <c r="U30" s="44"/>
+      <c r="V30" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="O30" s="62" t="s">
+      <c r="W30" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="P30" s="62" t="s">
+      <c r="X30" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="62" t="s">
+      <c r="Y30" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62" t="s">
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62" t="s">
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="V30" s="62" t="s">
+      <c r="AD30" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="W30" s="62" t="s">
+      <c r="AE30" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="X30" s="62" t="s">
+      <c r="AF30" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62" t="s">
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="AH30" s="62" t="s">
+      <c r="AP30" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62" t="s">
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
-      <c r="AX30" s="62"/>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="44"/>
+      <c r="AX30" s="44"/>
+      <c r="AY30" s="44"/>
+      <c r="AZ30" s="44"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="44"/>
+      <c r="BE30" s="44"/>
+      <c r="BF30" s="44"/>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3524,42 +4367,48 @@
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="AP1:AX1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="K1:AA1"/>
+    <mergeCell ref="AX1:BF1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="iconSet" priority="3">
-      <iconSet showValue="0">
+  <conditionalFormatting sqref="S11">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="iconSet" priority="2">
-      <iconSet>
+  <conditionalFormatting sqref="C4:Y29">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:E14">
-    <cfRule type="iconSet" priority="1">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
+        <cfvo type="percent" val="33" gte="0"/>
+        <cfvo type="num" val="66" gte="0"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
@@ -3570,127 +4419,434 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B17"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="117" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B3" s="119" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B4" s="119" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B5" s="119">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B6" s="119">
+        <v>50</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="125"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="81">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B7" s="121">
+        <v>25</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B8" s="117" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B9" s="119" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="118" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B10" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B11" s="119">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B12" s="119">
+        <v>50</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="125"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="81">
-        <v>55</v>
-      </c>
+      <c r="B13" s="121">
+        <v>25</v>
+      </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="119">
+        <v>75</v>
+      </c>
+      <c r="C17" s="116"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="119">
+        <v>50</v>
+      </c>
+      <c r="C18" s="118"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="125"/>
+    </row>
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="121">
+        <v>25</v>
+      </c>
+      <c r="C19" s="120"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+    </row>
+    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="119">
+        <v>75</v>
+      </c>
+      <c r="C23" s="116"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="119">
+        <v>50</v>
+      </c>
+      <c r="C24" s="118"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="125"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="121">
+        <v>25</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="108"/>
+    </row>
+    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="119">
+        <v>75</v>
+      </c>
+      <c r="C29" s="116"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="124"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="119">
+        <v>50</v>
+      </c>
+      <c r="C30" s="118"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="125"/>
+    </row>
+    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="121">
+        <v>25</v>
+      </c>
+      <c r="C31" s="120"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="106"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
+    </row>
+    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="108"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="119">
+        <v>75</v>
+      </c>
+      <c r="C35" s="116"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="124"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="119">
+        <v>50</v>
+      </c>
+      <c r="C36" s="118"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="125"/>
+    </row>
+    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="121">
+        <v>25</v>
+      </c>
+      <c r="C37" s="120"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3698,130 +4854,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="117" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B3" s="119" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B4" s="119" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B5" s="119">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B6" s="119">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C6" s="118"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="125"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B7" s="121">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C7" s="120"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B8" s="117" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B9" s="119" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B10" s="122" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B11" s="119">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B12" s="119">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="125"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B13" s="121">
         <v>55</v>
       </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3829,48 +5022,292 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="119">
+        <v>75</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="119">
+        <v>20</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="125"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="121">
+        <v>55</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="119">
+        <v>75</v>
+      </c>
+      <c r="C11" s="116"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="119">
+        <v>20</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="125"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="121">
+        <v>55</v>
+      </c>
+      <c r="C13" s="120"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="111" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="110"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="119">
+        <v>75</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="119">
+        <v>20</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="125"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="121">
+        <v>55</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
